--- a/Urban-population-households-density-by-county.xlsx
+++ b/Urban-population-households-density-by-county.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b84266591\Desktop\Tech\MJ TINGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B34EDB-DFE6-4416-94E3-E346CB8AF4E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A35A8F-5C1F-41DD-84D4-E2BA971007FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Urban Pop by Sex and County" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="129">
   <si>
     <t>County</t>
   </si>
@@ -412,6 +413,9 @@
   </si>
   <si>
     <t>Taita Taveta</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
 </sst>
 </file>
@@ -544,15 +548,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -573,6 +568,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -589,6 +593,1083 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gender</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distribution on Urban Population</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>     NAIROBI CITY </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>     KIAMBU </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>     MOMBASA </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>     NAKURU </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>     KAJIADO </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>     UASIN GISHU </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>     KISUMU </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>     MACHAKOS </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>     KILIFI </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>     MANDERA </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2192452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>831589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>610257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>517633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>206460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CC4-4E68-A87D-974537CED6B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>     NAIROBI CITY </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>     KIAMBU </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>     MOMBASA </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>     NAKURU </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>     KAJIADO </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>     UASIN GISHU </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>     KISUMU </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>     MACHAKOS </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>     KILIFI </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>     MANDERA </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2204376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>874588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>598046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>529377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>315734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>224670</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>207609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CC4-4E68-A87D-974537CED6B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="762815151"/>
+        <c:axId val="961422527"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="762815151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="961422527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="961422527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762815151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373855</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>411955</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BAEDDB-6975-4FBC-A887-DF532A0B0378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,7 +1941,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -903,21 +1984,21 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
@@ -926,7 +2007,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2557,687 +3638,828 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8ED850-0D2C-4AFA-B3B8-F44D848630CB}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="19">
         <v>4397073</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2">
+      <c r="H2" s="2">
         <v>105474</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>1706285</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2">
+      <c r="H3" s="2">
         <v>142333</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>1208333</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2">
+      <c r="H4" s="2">
         <v>240221</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="2">
         <v>1047080</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2">
+      <c r="H5" s="2">
         <v>246897</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="2">
         <v>622622</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2">
+      <c r="H6" s="2">
         <v>263195</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="2">
         <v>510205</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>352546</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="2">
         <v>440906</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="H8" s="2">
         <v>360434</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2">
         <v>414078</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2">
+      <c r="H9" s="2">
         <v>391200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>393888</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2">
+      <c r="H10" s="2">
         <v>433901</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>270467</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2">
+      <c r="H11" s="2">
         <v>474187</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>210890</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2">
+      <c r="H12" s="2">
         <v>495218</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="2">
         <v>190112</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="2">
+      <c r="H13" s="2">
         <v>531629</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="2">
         <v>185340</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2">
+      <c r="H14" s="2">
         <v>532675</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="2">
         <v>178734</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="2">
+      <c r="H15" s="2">
         <v>558540</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>177174</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2">
+      <c r="H16" s="2">
         <v>571754</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="2">
         <v>167200</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="2">
+      <c r="H17" s="2">
         <v>589400</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="2">
         <v>151410</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2">
+      <c r="H18" s="2">
         <v>591474</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="2">
         <v>150755</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="2">
+      <c r="H19" s="2">
         <v>596990</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>140791</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="2">
+      <c r="H20" s="2">
         <v>604089</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="2">
         <v>138918</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="2">
+      <c r="H21" s="2">
         <v>608409</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="2">
         <v>136224</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="2">
+      <c r="H22" s="2">
         <v>630463</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="2">
         <v>127360</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="2">
+      <c r="H23" s="2">
         <v>652981</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="2">
         <v>126431</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="2">
+      <c r="H24" s="2">
         <v>711450</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>125669</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="2">
+      <c r="H25" s="2">
         <v>714668</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="2">
         <v>118427</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="2">
+      <c r="H26" s="2">
         <v>740389</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="2">
         <v>113753</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="2">
+      <c r="H27" s="2">
         <v>779928</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="2">
         <v>113079</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="2">
+      <c r="H28" s="2">
         <v>786185</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="2">
         <v>107239</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="2">
+      <c r="H29" s="2">
         <v>808239</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="2">
         <v>100352</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="2">
+      <c r="H30" s="2">
         <v>811607</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="2">
         <v>93774</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="2">
+      <c r="H31" s="2">
         <v>826232</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="2">
         <v>93538</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="2">
+      <c r="H32" s="2">
         <v>847718</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2">
         <v>85417</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="2">
+      <c r="H33" s="2">
         <v>907766</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2">
         <v>77076</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="2">
+      <c r="H34" s="2">
         <v>910577</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="2">
         <v>75924</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="2">
+      <c r="H35" s="2">
         <v>938213</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="2">
         <v>75722</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="G36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="2">
+      <c r="H36" s="2">
         <v>949236</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="2">
         <v>75289</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="2">
+      <c r="H37" s="2">
         <v>1007854</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>66535</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>1018871</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="2">
         <v>59479</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="G39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="2">
+      <c r="H39" s="2">
         <v>1057521</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="2">
         <v>58384</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="G40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="2">
+      <c r="H40" s="2">
         <v>1059899</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B41" s="2">
         <v>54019</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="2">
+      <c r="H41" s="2">
         <v>1082168</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="2">
         <v>47132</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="2">
+      <c r="H42" s="2">
         <v>1115122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B43" s="2">
         <v>47036</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="G43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="2">
+      <c r="H43" s="2">
         <v>1115450</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="2">
         <v>38446</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="G44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="2">
+      <c r="H44" s="2">
         <v>1406796</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="2">
         <v>32743</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="G45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="2">
+      <c r="H45" s="2">
         <v>1480458</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="2">
         <v>31841</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="G46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="2">
+      <c r="H46" s="2">
         <v>1682239</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="2">
         <v>27971</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="G47" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="H47" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="11">
         <v>20579</v>
       </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
     </row>
   </sheetData>
-  <sortState ref="D2:E49">
-    <sortCondition ref="E2:E49"/>
+  <sortState ref="G2:H49">
+    <sortCondition ref="H2:H49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3257,100 +4479,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>12896152</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>58980</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>3579485</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>923912</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>1396249</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <v>34051</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="17">
         <v>17871886</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <v>1016943</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>13228525</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>56425</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>3666089</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>804321</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>1434534</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <v>34605</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="18">
         <v>18329148</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <v>895351</v>
       </c>
       <c r="K5" t="s">
@@ -3358,31 +4580,31 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>26124677</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>115405</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>7245574</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>1728233</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>2830783</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>68656</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>36201034</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <v>1912294</v>
       </c>
       <c r="K6" t="s">
@@ -3390,47 +4612,47 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="K7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="B8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="17">
         <v>955751</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>609439</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="F8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="17">
         <v>955751</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="17">
         <v>609439</v>
       </c>
       <c r="K8" t="s">
@@ -3438,31 +4660,31 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="B9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="18">
         <v>1000859</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>512817</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="F9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="18">
         <v>1000859</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <v>512817</v>
       </c>
       <c r="K9" t="s">
@@ -3470,76 +4692,76 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="B10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="17">
         <v>1956610</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <v>1122256</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="F10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="17">
         <v>1956610</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="17">
         <v>1122256</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="K11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>233379</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="C12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="17">
         <v>22888</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="E12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="17">
         <v>32428</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="G12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="17">
         <v>288695</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="15" t="s">
         <v>71</v>
       </c>
       <c r="K12" t="s">
@@ -3547,31 +4769,31 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>243172</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="C13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="18">
         <v>23841</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="E13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="18">
         <v>33854</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="21">
+      <c r="G13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="18">
         <v>300867</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="16" t="s">
         <v>71</v>
       </c>
       <c r="K13" t="s">
@@ -3579,31 +4801,31 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>476551</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="C14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="17">
         <v>46729</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="20">
+      <c r="E14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="17">
         <v>66282</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="20">
+      <c r="G14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="17">
         <v>589562</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="15" t="s">
         <v>71</v>
       </c>
       <c r="K14" t="s">
@@ -3611,3925 +4833,3925 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="K15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>253910</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="C16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="17">
         <v>43099</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="17">
         <v>2656</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="17">
         <v>31046</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <v>706</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="17">
         <v>328055</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>3362</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="18">
         <v>265492</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="21">
+      <c r="C17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="18">
         <v>46815</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>3027</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="18">
         <v>31879</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="16">
         <v>729</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="18">
         <v>344186</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="18">
         <v>3756</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>519402</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="C18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="17">
         <v>89914</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="17">
         <v>5683</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>62925</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="17">
         <v>1435</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="17">
         <v>672241</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="17">
         <v>7118</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="17">
         <v>218560</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="20">
+      <c r="C20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="17">
         <v>25439</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="20">
+      <c r="E20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="17">
         <v>12579</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="20">
+      <c r="G20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="17">
         <v>256578</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="18">
         <v>223135</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="21">
+      <c r="C21" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="18">
         <v>28625</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="21">
+      <c r="E21" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="18">
         <v>12757</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="G21" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="18">
         <v>264517</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="17">
         <v>441695</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="20">
+      <c r="C22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="17">
         <v>54064</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="20">
+      <c r="E22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="17">
         <v>25336</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="20">
+      <c r="G22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="17">
         <v>521095</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="17">
         <v>390131</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="20">
+      <c r="C24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="17">
         <v>23731</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="20">
+      <c r="E24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="17">
         <v>40178</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="20">
+      <c r="G24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="17">
         <v>454040</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="18">
         <v>414865</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="21">
+      <c r="C25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="18">
         <v>25634</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="21">
+      <c r="E25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="18">
         <v>41137</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="21">
+      <c r="G25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="18">
         <v>481636</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="17">
         <v>804996</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="20">
+      <c r="C26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="17">
         <v>49365</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="20">
+      <c r="E26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="17">
         <v>81315</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="20">
+      <c r="G26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="17">
         <v>935676</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="17">
         <v>284689</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="17">
         <v>14154</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="17">
         <v>423921</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="17">
         <v>9137</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="17">
         <v>59920</v>
       </c>
-      <c r="G28" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="20">
+      <c r="G28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="17">
         <v>768530</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="17">
         <v>23291</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="18">
         <v>293462</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <v>14584</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="18">
         <v>437028</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="18">
         <v>7569</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="18">
         <v>58946</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="21">
+      <c r="G29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="18">
         <v>789436</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="18">
         <v>22153</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="17">
         <v>578151</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="17">
         <v>28738</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="17">
         <v>860949</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="17">
         <v>16706</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="17">
         <v>118866</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="20">
+      <c r="G30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="17">
         <v>1557966</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="17">
         <v>45444</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="20">
+      <c r="B32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="17">
         <v>351991</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="17">
         <v>112485</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="17">
         <v>5432</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="17">
         <v>4098</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="17">
         <v>357423</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="17">
         <v>116583</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="21">
+      <c r="B33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="18">
         <v>339971</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="18">
         <v>96633</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="18">
         <v>5560</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="18">
         <v>4399</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="18">
         <v>345531</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="18">
         <v>101032</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="20">
+      <c r="B34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="17">
         <v>691962</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="17">
         <v>209118</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="17">
         <v>10992</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="17">
         <v>8497</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="17">
         <v>702954</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="17">
         <v>217615</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="17">
         <v>255615</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="20">
+      <c r="C36" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="17">
         <v>43286</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="20">
+      <c r="E36" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="17">
         <v>13297</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="20">
+      <c r="G36" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="17">
         <v>312198</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="18">
         <v>273908</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="21">
+      <c r="C37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="18">
         <v>42746</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="21">
+      <c r="E37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="18">
         <v>13828</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="21">
+      <c r="G37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="18">
         <v>330482</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="17">
         <v>529523</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="20">
+      <c r="C38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="17">
         <v>86032</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="20">
+      <c r="E38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="17">
         <v>27125</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="20">
+      <c r="G38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="17">
         <v>642680</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="17">
         <v>391653</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="20">
+      <c r="C40" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="17">
         <v>97131</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="17">
         <v>21461</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="17">
         <v>17608</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="17">
         <v>1002</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="17">
         <v>506392</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="17">
         <v>22463</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="18">
         <v>429722</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="21">
+      <c r="C41" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="18">
         <v>100063</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="18">
         <v>21359</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="18">
         <v>17692</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="16">
         <v>990</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="18">
         <v>547477</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="18">
         <v>22349</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="17">
         <v>821375</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="20">
+      <c r="C42" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="17">
         <v>197194</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="17">
         <v>42820</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="17">
         <v>35300</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="17">
         <v>1992</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="17">
         <v>1053869</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="17">
         <v>44812</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="17">
         <v>101016</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="20">
+      <c r="C44" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="17">
         <v>13690</v>
       </c>
-      <c r="E44" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="20">
+      <c r="E44" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="17">
         <v>1065</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="17">
         <v>2987</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="17">
         <v>115771</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="17">
         <v>2987</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="18">
         <v>102177</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="21">
+      <c r="C45" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="18">
         <v>13746</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="21">
+      <c r="E45" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="18">
         <v>1118</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="18">
         <v>3018</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="18">
         <v>117041</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="18">
         <v>3018</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="17">
         <v>203193</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="20">
+      <c r="C46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="17">
         <v>27436</v>
       </c>
-      <c r="E46" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="20">
+      <c r="E46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="17">
         <v>2183</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="17">
         <v>6005</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="17">
         <v>232812</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="17">
         <v>6005</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="17">
         <v>41585</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="20">
+      <c r="C48" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="17">
         <v>6978</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="20">
+      <c r="E48" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="17">
         <v>2838</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="20">
+      <c r="G48" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="17">
         <v>51401</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="18">
         <v>38354</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="21">
+      <c r="C49" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="18">
         <v>7006</v>
       </c>
-      <c r="E49" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="21">
+      <c r="E49" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="18">
         <v>2719</v>
       </c>
-      <c r="G49" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" s="21">
+      <c r="G49" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="18">
         <v>48079</v>
       </c>
-      <c r="I49" s="19" t="s">
+      <c r="I49" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="17">
         <v>79939</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="20">
+      <c r="C50" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="17">
         <v>13984</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="20">
+      <c r="E50" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="17">
         <v>5557</v>
       </c>
-      <c r="G50" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="20">
+      <c r="G50" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="17">
         <v>99480</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="17">
         <v>114459</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="15">
         <v>586</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="17">
         <v>10920</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="17">
         <v>9835</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="17">
         <v>2584</v>
       </c>
-      <c r="G52" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="20">
+      <c r="G52" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="17">
         <v>127963</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="17">
         <v>10421</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="18">
         <v>112026</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="16">
         <v>596</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="18">
         <v>11057</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="18">
         <v>10310</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="18">
         <v>2477</v>
       </c>
-      <c r="G53" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" s="21">
+      <c r="G53" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="18">
         <v>125560</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="18">
         <v>10906</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="17">
         <v>226485</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="17">
         <v>1182</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="17">
         <v>21977</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="17">
         <v>20145</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="17">
         <v>5061</v>
       </c>
-      <c r="G54" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H54" s="20">
+      <c r="G54" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="17">
         <v>253523</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="17">
         <v>21327</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="17">
         <v>116367</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="15">
         <v>992</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="17">
         <v>25855</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="20">
+      <c r="E56" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="17">
         <v>5624</v>
       </c>
-      <c r="G56" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" s="20">
+      <c r="G56" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="17">
         <v>147846</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="15">
         <v>992</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="18">
         <v>106943</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="16">
         <v>689</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="18">
         <v>27245</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="21">
+      <c r="E57" s="16"/>
+      <c r="F57" s="18">
         <v>4749</v>
       </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="21">
+      <c r="G57" s="16"/>
+      <c r="H57" s="18">
         <v>138937</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="16">
         <v>689</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="18"/>
-      <c r="B58" s="20">
+      <c r="A58" s="15"/>
+      <c r="B58" s="17">
         <v>223310</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="17">
         <v>1681</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="17">
         <v>53100</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="20">
+      <c r="E58" s="15"/>
+      <c r="F58" s="17">
         <v>10373</v>
       </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="20">
+      <c r="G58" s="15"/>
+      <c r="H58" s="17">
         <v>286783</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="17">
         <v>1681</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="17">
         <v>40837</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="20">
+      <c r="C60" s="15"/>
+      <c r="D60" s="17">
         <v>28212</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="20">
+      <c r="E60" s="15"/>
+      <c r="F60" s="17">
         <v>1366</v>
       </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="20">
+      <c r="G60" s="15"/>
+      <c r="H60" s="17">
         <v>70415</v>
       </c>
-      <c r="I60" s="18"/>
+      <c r="I60" s="15"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="18">
         <v>37635</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="21">
+      <c r="C61" s="16"/>
+      <c r="D61" s="18">
         <v>29883</v>
       </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="21">
+      <c r="E61" s="16"/>
+      <c r="F61" s="18">
         <v>1466</v>
       </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="21">
+      <c r="G61" s="16"/>
+      <c r="H61" s="18">
         <v>68984</v>
       </c>
-      <c r="I61" s="19"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="18"/>
-      <c r="B62" s="20">
+      <c r="A62" s="15"/>
+      <c r="B62" s="17">
         <v>78472</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="20">
+      <c r="C62" s="15"/>
+      <c r="D62" s="17">
         <v>58095</v>
       </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="20">
+      <c r="E62" s="15"/>
+      <c r="F62" s="17">
         <v>2832</v>
       </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="20">
+      <c r="G62" s="15"/>
+      <c r="H62" s="17">
         <v>139399</v>
       </c>
-      <c r="I62" s="18"/>
+      <c r="I62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="17">
         <v>611081</v>
       </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="20">
+      <c r="C64" s="15"/>
+      <c r="D64" s="17">
         <v>38005</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="17">
         <v>2788</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="17">
         <v>8120</v>
       </c>
-      <c r="G64" s="18"/>
-      <c r="H64" s="20">
+      <c r="G64" s="15"/>
+      <c r="H64" s="17">
         <v>657206</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="17">
         <v>2788</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="18">
         <v>626015</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="21">
+      <c r="C65" s="16"/>
+      <c r="D65" s="18">
         <v>40289</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="18">
         <v>3119</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="18">
         <v>8319</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="21">
+      <c r="G65" s="16"/>
+      <c r="H65" s="18">
         <v>674623</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="18">
         <v>3119</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="18"/>
-      <c r="B66" s="20">
+      <c r="A66" s="15"/>
+      <c r="B66" s="17">
         <v>1237096</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="20">
+      <c r="C66" s="15"/>
+      <c r="D66" s="17">
         <v>78294</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="17">
         <v>5907</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="17">
         <v>16439</v>
       </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="20">
+      <c r="G66" s="15"/>
+      <c r="H66" s="17">
         <v>1331829</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="17">
         <v>5907</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="17">
         <v>137195</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="20">
+      <c r="C68" s="15"/>
+      <c r="D68" s="17">
         <v>6651</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="15">
         <v>405</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="17">
         <v>31739</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="15">
         <v>52</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="17">
         <v>175585</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I68" s="15">
         <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B69" s="18">
         <v>144214</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="21">
+      <c r="C69" s="16"/>
+      <c r="D69" s="18">
         <v>7566</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="16">
         <v>358</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="18">
         <v>31947</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="16">
         <v>72</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H69" s="18">
         <v>183727</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="16">
         <v>430</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="18"/>
-      <c r="B70" s="20">
+      <c r="A70" s="15"/>
+      <c r="B70" s="17">
         <v>281409</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="20">
+      <c r="C70" s="15"/>
+      <c r="D70" s="17">
         <v>14217</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="15">
         <v>763</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="17">
         <v>63686</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="15">
         <v>124</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="17">
         <v>359312</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I70" s="15">
         <v>887</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="17">
         <v>211301</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="20">
+      <c r="C72" s="15"/>
+      <c r="D72" s="17">
         <v>16159</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="17">
         <v>2365</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="17">
         <v>20352</v>
       </c>
-      <c r="G72" s="18"/>
-      <c r="H72" s="20">
+      <c r="G72" s="15"/>
+      <c r="H72" s="17">
         <v>247812</v>
       </c>
-      <c r="I72" s="20">
+      <c r="I72" s="17">
         <v>2365</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="18">
         <v>217422</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="21">
+      <c r="C73" s="16"/>
+      <c r="D73" s="18">
         <v>17766</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="18">
         <v>2374</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="18">
         <v>20730</v>
       </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="21">
+      <c r="G73" s="16"/>
+      <c r="H73" s="18">
         <v>255918</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="18">
         <v>2374</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="18"/>
-      <c r="B74" s="20">
+      <c r="A74" s="15"/>
+      <c r="B74" s="17">
         <v>428723</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="20">
+      <c r="C74" s="15"/>
+      <c r="D74" s="17">
         <v>33925</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="17">
         <v>4739</v>
       </c>
-      <c r="F74" s="20">
+      <c r="F74" s="17">
         <v>41082</v>
       </c>
-      <c r="G74" s="18"/>
-      <c r="H74" s="20">
+      <c r="G74" s="15"/>
+      <c r="H74" s="17">
         <v>503730</v>
       </c>
-      <c r="I74" s="20">
+      <c r="I74" s="17">
         <v>4739</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="17">
         <v>407965</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="20">
+      <c r="C76" s="15"/>
+      <c r="D76" s="17">
         <v>16394</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="17">
         <v>1656</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F76" s="17">
         <v>47116</v>
       </c>
-      <c r="G76" s="18"/>
-      <c r="H76" s="20">
+      <c r="G76" s="15"/>
+      <c r="H76" s="17">
         <v>471475</v>
       </c>
-      <c r="I76" s="20">
+      <c r="I76" s="17">
         <v>1656</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B77" s="18">
         <v>456005</v>
       </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="21">
+      <c r="C77" s="16"/>
+      <c r="D77" s="18">
         <v>17320</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="18">
         <v>1806</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="18">
         <v>49599</v>
       </c>
-      <c r="G77" s="19"/>
-      <c r="H77" s="21">
+      <c r="G77" s="16"/>
+      <c r="H77" s="18">
         <v>522924</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I77" s="18">
         <v>1806</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="18"/>
-      <c r="B78" s="20">
+      <c r="A78" s="15"/>
+      <c r="B78" s="17">
         <v>863970</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="20">
+      <c r="C78" s="15"/>
+      <c r="D78" s="17">
         <v>33714</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="17">
         <v>3462</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="17">
         <v>96715</v>
       </c>
-      <c r="G78" s="18"/>
-      <c r="H78" s="20">
+      <c r="G78" s="15"/>
+      <c r="H78" s="17">
         <v>994399</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I78" s="17">
         <v>3462</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="17">
         <v>252858</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="20">
+      <c r="C80" s="15"/>
+      <c r="D80" s="17">
         <v>88011</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="17">
         <v>4247</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="17">
         <v>190793</v>
       </c>
-      <c r="G80" s="18"/>
-      <c r="H80" s="20">
+      <c r="G80" s="15"/>
+      <c r="H80" s="17">
         <v>531662</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I80" s="17">
         <v>4247</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="21">
+      <c r="B81" s="18">
         <v>272645</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="21">
+      <c r="C81" s="16"/>
+      <c r="D81" s="18">
         <v>83275</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E81" s="18">
         <v>3738</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="18">
         <v>190081</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="21">
+      <c r="G81" s="16"/>
+      <c r="H81" s="18">
         <v>546001</v>
       </c>
-      <c r="I81" s="21">
+      <c r="I81" s="18">
         <v>3738</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="18"/>
-      <c r="B82" s="20">
+      <c r="A82" s="15"/>
+      <c r="B82" s="17">
         <v>525503</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="20">
+      <c r="C82" s="15"/>
+      <c r="D82" s="17">
         <v>171286</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="17">
         <v>7985</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F82" s="17">
         <v>380874</v>
       </c>
-      <c r="G82" s="18"/>
-      <c r="H82" s="20">
+      <c r="G82" s="15"/>
+      <c r="H82" s="17">
         <v>1077663</v>
       </c>
-      <c r="I82" s="20">
+      <c r="I82" s="17">
         <v>7985</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="20">
+      <c r="B84" s="17">
         <v>375807</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="20">
+      <c r="C84" s="15"/>
+      <c r="D84" s="17">
         <v>18520</v>
       </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="20">
+      <c r="E84" s="15"/>
+      <c r="F84" s="17">
         <v>30415</v>
       </c>
-      <c r="G84" s="18"/>
-      <c r="H84" s="20">
+      <c r="G84" s="15"/>
+      <c r="H84" s="17">
         <v>424742</v>
       </c>
-      <c r="I84" s="18"/>
+      <c r="I84" s="15"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="21">
+      <c r="B85" s="18">
         <v>399977</v>
       </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="21">
+      <c r="C85" s="16"/>
+      <c r="D85" s="18">
         <v>19014</v>
       </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="21">
+      <c r="E85" s="16"/>
+      <c r="F85" s="18">
         <v>30662</v>
       </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="21">
+      <c r="G85" s="16"/>
+      <c r="H85" s="18">
         <v>449653</v>
       </c>
-      <c r="I85" s="19"/>
+      <c r="I85" s="16"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" s="18"/>
-      <c r="B86" s="20">
+      <c r="A86" s="15"/>
+      <c r="B86" s="17">
         <v>775784</v>
       </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="20">
+      <c r="C86" s="15"/>
+      <c r="D86" s="17">
         <v>37534</v>
       </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="20">
+      <c r="E86" s="15"/>
+      <c r="F86" s="17">
         <v>61077</v>
       </c>
-      <c r="G86" s="18"/>
-      <c r="H86" s="20">
+      <c r="G86" s="15"/>
+      <c r="H86" s="17">
         <v>874395</v>
       </c>
-      <c r="I86" s="18"/>
+      <c r="I86" s="15"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="20">
+      <c r="B88" s="17">
         <v>231382</v>
       </c>
-      <c r="C88" s="20">
+      <c r="C88" s="17">
         <v>27930</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D88" s="17">
         <v>67506</v>
       </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="20">
+      <c r="E88" s="15"/>
+      <c r="F88" s="17">
         <v>1948</v>
       </c>
-      <c r="G88" s="20">
+      <c r="G88" s="17">
         <v>1554</v>
       </c>
-      <c r="H88" s="20">
+      <c r="H88" s="17">
         <v>300836</v>
       </c>
-      <c r="I88" s="20">
+      <c r="I88" s="17">
         <v>29484</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="18">
         <v>193626</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="18">
         <v>25494</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="18">
         <v>64490</v>
       </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="21">
+      <c r="E89" s="16"/>
+      <c r="F89" s="18">
         <v>1664</v>
       </c>
-      <c r="G89" s="21">
+      <c r="G89" s="18">
         <v>1280</v>
       </c>
-      <c r="H89" s="21">
+      <c r="H89" s="18">
         <v>259780</v>
       </c>
-      <c r="I89" s="21">
+      <c r="I89" s="18">
         <v>26774</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A90" s="18"/>
-      <c r="B90" s="20">
+      <c r="A90" s="15"/>
+      <c r="B90" s="17">
         <v>425008</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="17">
         <v>53424</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D90" s="17">
         <v>131996</v>
       </c>
-      <c r="E90" s="18"/>
-      <c r="F90" s="20">
+      <c r="E90" s="15"/>
+      <c r="F90" s="17">
         <v>3612</v>
       </c>
-      <c r="G90" s="20">
+      <c r="G90" s="17">
         <v>2834</v>
       </c>
-      <c r="H90" s="20">
+      <c r="H90" s="17">
         <v>560616</v>
       </c>
-      <c r="I90" s="20">
+      <c r="I90" s="17">
         <v>56258</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="20">
+      <c r="B92" s="17">
         <v>313536</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="20">
+      <c r="C92" s="15"/>
+      <c r="D92" s="17">
         <v>12545</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="15">
         <v>357</v>
       </c>
-      <c r="F92" s="20">
+      <c r="F92" s="17">
         <v>34258</v>
       </c>
-      <c r="G92" s="18"/>
-      <c r="H92" s="20">
+      <c r="G92" s="15"/>
+      <c r="H92" s="17">
         <v>360339</v>
       </c>
-      <c r="I92" s="18">
+      <c r="I92" s="15">
         <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="18">
         <v>254551</v>
       </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="21">
+      <c r="C93" s="16"/>
+      <c r="D93" s="18">
         <v>11154</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E93" s="16">
         <v>280</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="18">
         <v>31410</v>
       </c>
-      <c r="G93" s="19"/>
-      <c r="H93" s="21">
+      <c r="G93" s="16"/>
+      <c r="H93" s="18">
         <v>297115</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I93" s="16">
         <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A94" s="18"/>
-      <c r="B94" s="20">
+      <c r="A94" s="15"/>
+      <c r="B94" s="17">
         <v>568087</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="20">
+      <c r="C94" s="15"/>
+      <c r="D94" s="17">
         <v>23699</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="15">
         <v>637</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F94" s="17">
         <v>65668</v>
       </c>
-      <c r="G94" s="18"/>
-      <c r="H94" s="20">
+      <c r="G94" s="15"/>
+      <c r="H94" s="17">
         <v>657454</v>
       </c>
-      <c r="I94" s="18">
+      <c r="I94" s="15">
         <v>637</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B96" s="17">
         <v>460292</v>
       </c>
-      <c r="C96" s="20">
+      <c r="C96" s="17">
         <v>1966</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="17">
         <v>70243</v>
       </c>
-      <c r="E96" s="18"/>
-      <c r="F96" s="20">
+      <c r="E96" s="15"/>
+      <c r="F96" s="17">
         <v>25321</v>
       </c>
-      <c r="G96" s="18"/>
-      <c r="H96" s="20">
+      <c r="G96" s="15"/>
+      <c r="H96" s="17">
         <v>555856</v>
       </c>
-      <c r="I96" s="20">
+      <c r="I96" s="17">
         <v>1966</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="21">
+      <c r="B97" s="18">
         <v>380622</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="18">
         <v>2162</v>
       </c>
-      <c r="D97" s="21">
+      <c r="D97" s="18">
         <v>59958</v>
       </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="21">
+      <c r="E97" s="16"/>
+      <c r="F97" s="18">
         <v>22553</v>
       </c>
-      <c r="G97" s="19"/>
-      <c r="H97" s="21">
+      <c r="G97" s="16"/>
+      <c r="H97" s="18">
         <v>463133</v>
       </c>
-      <c r="I97" s="21">
+      <c r="I97" s="18">
         <v>2162</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98" s="18"/>
-      <c r="B98" s="20">
+      <c r="A98" s="15"/>
+      <c r="B98" s="17">
         <v>840914</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C98" s="17">
         <v>4128</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="17">
         <v>130201</v>
       </c>
-      <c r="E98" s="18"/>
-      <c r="F98" s="20">
+      <c r="E98" s="15"/>
+      <c r="F98" s="17">
         <v>47874</v>
       </c>
-      <c r="G98" s="18"/>
-      <c r="H98" s="20">
+      <c r="G98" s="15"/>
+      <c r="H98" s="17">
         <v>1018989</v>
       </c>
-      <c r="I98" s="20">
+      <c r="I98" s="17">
         <v>4128</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="17">
         <v>350549</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C100" s="17">
         <v>1983</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="17">
         <v>30444</v>
       </c>
-      <c r="E100" s="20">
+      <c r="E100" s="17">
         <v>1184</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F100" s="17">
         <v>10334</v>
       </c>
-      <c r="G100" s="18"/>
-      <c r="H100" s="20">
+      <c r="G100" s="15"/>
+      <c r="H100" s="17">
         <v>391327</v>
       </c>
-      <c r="I100" s="20">
+      <c r="I100" s="17">
         <v>3167</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B101" s="21">
+      <c r="B101" s="18">
         <v>391587</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="18">
         <v>1803</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D101" s="18">
         <v>33949</v>
       </c>
-      <c r="E101" s="21">
+      <c r="E101" s="18">
         <v>1028</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="18">
         <v>11123</v>
       </c>
-      <c r="G101" s="19"/>
-      <c r="H101" s="21">
+      <c r="G101" s="16"/>
+      <c r="H101" s="18">
         <v>436659</v>
       </c>
-      <c r="I101" s="21">
+      <c r="I101" s="18">
         <v>2831</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A102" s="18"/>
-      <c r="B102" s="20">
+      <c r="A102" s="15"/>
+      <c r="B102" s="17">
         <v>742136</v>
       </c>
-      <c r="C102" s="20">
+      <c r="C102" s="17">
         <v>3786</v>
       </c>
-      <c r="D102" s="20">
+      <c r="D102" s="17">
         <v>64393</v>
       </c>
-      <c r="E102" s="20">
+      <c r="E102" s="17">
         <v>2212</v>
       </c>
-      <c r="F102" s="20">
+      <c r="F102" s="17">
         <v>21457</v>
       </c>
-      <c r="G102" s="18"/>
-      <c r="H102" s="20">
+      <c r="G102" s="15"/>
+      <c r="H102" s="17">
         <v>827986</v>
       </c>
-      <c r="I102" s="20">
+      <c r="I102" s="17">
         <v>5998</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="20">
+      <c r="B104" s="17">
         <v>220861</v>
       </c>
-      <c r="C104" s="18"/>
-      <c r="D104" s="20">
+      <c r="C104" s="15"/>
+      <c r="D104" s="17">
         <v>62611</v>
       </c>
-      <c r="E104" s="20">
+      <c r="E104" s="17">
         <v>83010</v>
       </c>
-      <c r="F104" s="20">
+      <c r="F104" s="17">
         <v>89892</v>
       </c>
-      <c r="G104" s="20">
+      <c r="G104" s="17">
         <v>7679</v>
       </c>
-      <c r="H104" s="20">
+      <c r="H104" s="17">
         <v>373364</v>
       </c>
-      <c r="I104" s="20">
+      <c r="I104" s="17">
         <v>90689</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="21">
+      <c r="B105" s="18">
         <v>240284</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="21">
+      <c r="C105" s="16"/>
+      <c r="D105" s="18">
         <v>65318</v>
       </c>
-      <c r="E105" s="21">
+      <c r="E105" s="18">
         <v>80686</v>
       </c>
-      <c r="F105" s="21">
+      <c r="F105" s="18">
         <v>94438</v>
       </c>
-      <c r="G105" s="21">
+      <c r="G105" s="18">
         <v>8049</v>
       </c>
-      <c r="H105" s="21">
+      <c r="H105" s="18">
         <v>400040</v>
       </c>
-      <c r="I105" s="21">
+      <c r="I105" s="18">
         <v>88735</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="18"/>
-      <c r="B106" s="20">
+      <c r="A106" s="15"/>
+      <c r="B106" s="17">
         <v>461145</v>
       </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="20">
+      <c r="C106" s="15"/>
+      <c r="D106" s="17">
         <v>127929</v>
       </c>
-      <c r="E106" s="20">
+      <c r="E106" s="17">
         <v>163696</v>
       </c>
-      <c r="F106" s="20">
+      <c r="F106" s="17">
         <v>184330</v>
       </c>
-      <c r="G106" s="20">
+      <c r="G106" s="17">
         <v>15728</v>
       </c>
-      <c r="H106" s="20">
+      <c r="H106" s="17">
         <v>773404</v>
       </c>
-      <c r="I106" s="20">
+      <c r="I106" s="17">
         <v>179424</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="20">
+      <c r="B108" s="17">
         <v>292179</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="20">
+      <c r="C108" s="15"/>
+      <c r="D108" s="17">
         <v>61147</v>
       </c>
-      <c r="E108" s="18"/>
-      <c r="F108" s="20">
+      <c r="E108" s="15"/>
+      <c r="F108" s="17">
         <v>85489</v>
       </c>
-      <c r="G108" s="18"/>
-      <c r="H108" s="20">
+      <c r="G108" s="15"/>
+      <c r="H108" s="17">
         <v>438815</v>
       </c>
-      <c r="I108" s="18"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="21">
+      <c r="B109" s="18">
         <v>311549</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="21">
+      <c r="C109" s="16"/>
+      <c r="D109" s="18">
         <v>64287</v>
       </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="21">
+      <c r="E109" s="16"/>
+      <c r="F109" s="18">
         <v>93092</v>
       </c>
-      <c r="G109" s="19"/>
-      <c r="H109" s="21">
+      <c r="G109" s="16"/>
+      <c r="H109" s="18">
         <v>468928</v>
       </c>
-      <c r="I109" s="19"/>
+      <c r="I109" s="16"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A110" s="18"/>
-      <c r="B110" s="20">
+      <c r="A110" s="15"/>
+      <c r="B110" s="17">
         <v>603728</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="20">
+      <c r="C110" s="15"/>
+      <c r="D110" s="17">
         <v>125434</v>
       </c>
-      <c r="E110" s="18"/>
-      <c r="F110" s="20">
+      <c r="E110" s="15"/>
+      <c r="F110" s="17">
         <v>178581</v>
       </c>
-      <c r="G110" s="18"/>
-      <c r="H110" s="20">
+      <c r="G110" s="15"/>
+      <c r="H110" s="17">
         <v>907743</v>
       </c>
-      <c r="I110" s="18"/>
+      <c r="I110" s="15"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="20">
+      <c r="B112" s="17">
         <v>390669</v>
       </c>
-      <c r="C112" s="20">
+      <c r="C112" s="17">
         <v>2343</v>
       </c>
-      <c r="D112" s="20">
+      <c r="D112" s="17">
         <v>29587</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="15">
         <v>541</v>
       </c>
-      <c r="F112" s="20">
+      <c r="F112" s="17">
         <v>34190</v>
       </c>
-      <c r="G112" s="18"/>
-      <c r="H112" s="20">
+      <c r="G112" s="15"/>
+      <c r="H112" s="17">
         <v>454446</v>
       </c>
-      <c r="I112" s="20">
+      <c r="I112" s="17">
         <v>2884</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="21">
+      <c r="B113" s="18">
         <v>425367</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="18">
         <v>1650</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="18">
         <v>32310</v>
       </c>
-      <c r="E113" s="19">
+      <c r="E113" s="16">
         <v>543</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="18">
         <v>38003</v>
       </c>
-      <c r="G113" s="19"/>
-      <c r="H113" s="21">
+      <c r="G113" s="16"/>
+      <c r="H113" s="18">
         <v>495680</v>
       </c>
-      <c r="I113" s="21">
+      <c r="I113" s="18">
         <v>2193</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A114" s="18"/>
-      <c r="B114" s="20">
+      <c r="A114" s="15"/>
+      <c r="B114" s="17">
         <v>816036</v>
       </c>
-      <c r="C114" s="20">
+      <c r="C114" s="17">
         <v>3993</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D114" s="17">
         <v>61897</v>
       </c>
-      <c r="E114" s="20">
+      <c r="E114" s="17">
         <v>1084</v>
       </c>
-      <c r="F114" s="20">
+      <c r="F114" s="17">
         <v>72193</v>
       </c>
-      <c r="G114" s="18"/>
-      <c r="H114" s="20">
+      <c r="G114" s="15"/>
+      <c r="H114" s="17">
         <v>950126</v>
       </c>
-      <c r="I114" s="20">
+      <c r="I114" s="17">
         <v>5077</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="20">
+      <c r="B116" s="17">
         <v>435817</v>
       </c>
-      <c r="C116" s="18"/>
-      <c r="D116" s="20">
+      <c r="C116" s="15"/>
+      <c r="D116" s="17">
         <v>41286</v>
       </c>
-      <c r="E116" s="20">
+      <c r="E116" s="17">
         <v>1924</v>
       </c>
-      <c r="F116" s="20">
+      <c r="F116" s="17">
         <v>65435</v>
       </c>
-      <c r="G116" s="18"/>
-      <c r="H116" s="20">
+      <c r="G116" s="15"/>
+      <c r="H116" s="17">
         <v>542538</v>
       </c>
-      <c r="I116" s="20">
+      <c r="I116" s="17">
         <v>1924</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="21">
+      <c r="B117" s="18">
         <v>481443</v>
       </c>
-      <c r="C117" s="19"/>
-      <c r="D117" s="21">
+      <c r="C117" s="16"/>
+      <c r="D117" s="18">
         <v>42635</v>
       </c>
-      <c r="E117" s="21">
+      <c r="E117" s="18">
         <v>2039</v>
       </c>
-      <c r="F117" s="21">
+      <c r="F117" s="18">
         <v>71453</v>
       </c>
-      <c r="G117" s="19"/>
-      <c r="H117" s="21">
+      <c r="G117" s="16"/>
+      <c r="H117" s="18">
         <v>595531</v>
       </c>
-      <c r="I117" s="21">
+      <c r="I117" s="18">
         <v>2039</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A118" s="18"/>
-      <c r="B118" s="20">
+      <c r="A118" s="15"/>
+      <c r="B118" s="17">
         <v>917260</v>
       </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="20">
+      <c r="C118" s="15"/>
+      <c r="D118" s="17">
         <v>83921</v>
       </c>
-      <c r="E118" s="20">
+      <c r="E118" s="17">
         <v>3963</v>
       </c>
-      <c r="F118" s="20">
+      <c r="F118" s="17">
         <v>136888</v>
       </c>
-      <c r="G118" s="18"/>
-      <c r="H118" s="20">
+      <c r="G118" s="15"/>
+      <c r="H118" s="17">
         <v>1138069</v>
       </c>
-      <c r="I118" s="20">
+      <c r="I118" s="17">
         <v>3963</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="20">
+      <c r="B120" s="17">
         <v>247841</v>
       </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="20">
+      <c r="C120" s="15"/>
+      <c r="D120" s="17">
         <v>11532</v>
       </c>
-      <c r="E120" s="18"/>
-      <c r="F120" s="20">
+      <c r="E120" s="15"/>
+      <c r="F120" s="17">
         <v>25141</v>
       </c>
-      <c r="G120" s="18"/>
-      <c r="H120" s="20">
+      <c r="G120" s="15"/>
+      <c r="H120" s="17">
         <v>284514</v>
       </c>
-      <c r="I120" s="18"/>
+      <c r="I120" s="15"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="21">
+      <c r="B121" s="18">
         <v>268494</v>
       </c>
-      <c r="C121" s="19"/>
-      <c r="D121" s="21">
+      <c r="C121" s="16"/>
+      <c r="D121" s="18">
         <v>12086</v>
       </c>
-      <c r="E121" s="19"/>
-      <c r="F121" s="21">
+      <c r="E121" s="16"/>
+      <c r="F121" s="18">
         <v>27230</v>
       </c>
-      <c r="G121" s="19"/>
-      <c r="H121" s="21">
+      <c r="G121" s="16"/>
+      <c r="H121" s="18">
         <v>307810</v>
       </c>
-      <c r="I121" s="19"/>
+      <c r="I121" s="16"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A122" s="18"/>
-      <c r="B122" s="20">
+      <c r="A122" s="15"/>
+      <c r="B122" s="17">
         <v>516335</v>
       </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="20">
+      <c r="C122" s="15"/>
+      <c r="D122" s="17">
         <v>23618</v>
       </c>
-      <c r="E122" s="18"/>
-      <c r="F122" s="20">
+      <c r="E122" s="15"/>
+      <c r="F122" s="17">
         <v>52371</v>
       </c>
-      <c r="G122" s="18"/>
-      <c r="H122" s="20">
+      <c r="G122" s="15"/>
+      <c r="H122" s="17">
         <v>592324</v>
       </c>
-      <c r="I122" s="18"/>
+      <c r="I122" s="15"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="20">
+      <c r="B124" s="17">
         <v>383985</v>
       </c>
-      <c r="C124" s="20">
+      <c r="C124" s="17">
         <v>6141</v>
       </c>
-      <c r="D124" s="20">
+      <c r="D124" s="17">
         <v>46564</v>
       </c>
-      <c r="E124" s="18"/>
-      <c r="F124" s="20">
+      <c r="E124" s="15"/>
+      <c r="F124" s="17">
         <v>3843</v>
       </c>
-      <c r="G124" s="18"/>
-      <c r="H124" s="20">
+      <c r="G124" s="15"/>
+      <c r="H124" s="17">
         <v>434392</v>
       </c>
-      <c r="I124" s="20">
+      <c r="I124" s="17">
         <v>6141</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="21">
+      <c r="B125" s="18">
         <v>351933</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C125" s="18">
         <v>6230</v>
       </c>
-      <c r="D125" s="21">
+      <c r="D125" s="18">
         <v>45535</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="21">
+      <c r="E125" s="16"/>
+      <c r="F125" s="18">
         <v>4017</v>
       </c>
-      <c r="G125" s="19"/>
-      <c r="H125" s="21">
+      <c r="G125" s="16"/>
+      <c r="H125" s="18">
         <v>401485</v>
       </c>
-      <c r="I125" s="21">
+      <c r="I125" s="18">
         <v>6230</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A126" s="18"/>
-      <c r="B126" s="20">
+      <c r="A126" s="15"/>
+      <c r="B126" s="17">
         <v>735918</v>
       </c>
-      <c r="C126" s="20">
+      <c r="C126" s="17">
         <v>12371</v>
       </c>
-      <c r="D126" s="20">
+      <c r="D126" s="17">
         <v>92099</v>
       </c>
-      <c r="E126" s="18"/>
-      <c r="F126" s="20">
+      <c r="E126" s="15"/>
+      <c r="F126" s="17">
         <v>7860</v>
       </c>
-      <c r="G126" s="18"/>
-      <c r="H126" s="20">
+      <c r="G126" s="15"/>
+      <c r="H126" s="17">
         <v>835877</v>
       </c>
-      <c r="I126" s="20">
+      <c r="I126" s="17">
         <v>12371</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="20">
+      <c r="B128" s="17">
         <v>232248</v>
       </c>
-      <c r="C128" s="18">
+      <c r="C128" s="15">
         <v>811</v>
       </c>
-      <c r="D128" s="20">
+      <c r="D128" s="17">
         <v>4738</v>
       </c>
-      <c r="E128" s="20">
+      <c r="E128" s="17">
         <v>5183</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F128" s="17">
         <v>2058</v>
       </c>
-      <c r="G128" s="20">
+      <c r="G128" s="17">
         <v>8183</v>
       </c>
-      <c r="H128" s="20">
+      <c r="H128" s="17">
         <v>239044</v>
       </c>
-      <c r="I128" s="20">
+      <c r="I128" s="17">
         <v>14177</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B129" s="21">
+      <c r="B129" s="18">
         <v>234841</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="16">
         <v>905</v>
       </c>
-      <c r="D129" s="21">
+      <c r="D129" s="18">
         <v>5082</v>
       </c>
-      <c r="E129" s="21">
+      <c r="E129" s="18">
         <v>5197</v>
       </c>
-      <c r="F129" s="21">
+      <c r="F129" s="18">
         <v>2161</v>
       </c>
-      <c r="G129" s="21">
+      <c r="G129" s="18">
         <v>8255</v>
       </c>
-      <c r="H129" s="21">
+      <c r="H129" s="18">
         <v>242084</v>
       </c>
-      <c r="I129" s="21">
+      <c r="I129" s="18">
         <v>14357</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A130" s="18"/>
-      <c r="B130" s="20">
+      <c r="A130" s="15"/>
+      <c r="B130" s="17">
         <v>467089</v>
       </c>
-      <c r="C130" s="20">
+      <c r="C130" s="17">
         <v>1716</v>
       </c>
-      <c r="D130" s="20">
+      <c r="D130" s="17">
         <v>9820</v>
       </c>
-      <c r="E130" s="20">
+      <c r="E130" s="17">
         <v>10380</v>
       </c>
-      <c r="F130" s="20">
+      <c r="F130" s="17">
         <v>4219</v>
       </c>
-      <c r="G130" s="20">
+      <c r="G130" s="17">
         <v>16438</v>
       </c>
-      <c r="H130" s="20">
+      <c r="H130" s="17">
         <v>481128</v>
       </c>
-      <c r="I130" s="20">
+      <c r="I130" s="17">
         <v>28534</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="20">
+      <c r="B132" s="17">
         <v>92158</v>
       </c>
-      <c r="C132" s="18"/>
-      <c r="D132" s="20">
+      <c r="C132" s="15"/>
+      <c r="D132" s="17">
         <v>12892</v>
       </c>
-      <c r="E132" s="18"/>
-      <c r="F132" s="20">
+      <c r="E132" s="15"/>
+      <c r="F132" s="17">
         <v>5031</v>
       </c>
-      <c r="G132" s="18"/>
-      <c r="H132" s="20">
+      <c r="G132" s="15"/>
+      <c r="H132" s="17">
         <v>110081</v>
       </c>
-      <c r="I132" s="18"/>
+      <c r="I132" s="15"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B133" s="21">
+      <c r="B133" s="18">
         <v>92511</v>
       </c>
-      <c r="C133" s="19"/>
-      <c r="D133" s="21">
+      <c r="C133" s="16"/>
+      <c r="D133" s="18">
         <v>13554</v>
       </c>
-      <c r="E133" s="19"/>
-      <c r="F133" s="21">
+      <c r="E133" s="16"/>
+      <c r="F133" s="18">
         <v>5143</v>
       </c>
-      <c r="G133" s="19"/>
-      <c r="H133" s="21">
+      <c r="G133" s="16"/>
+      <c r="H133" s="18">
         <v>111208</v>
       </c>
-      <c r="I133" s="19"/>
+      <c r="I133" s="16"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A134" s="18"/>
-      <c r="B134" s="20">
+      <c r="A134" s="15"/>
+      <c r="B134" s="17">
         <v>184669</v>
       </c>
-      <c r="C134" s="18"/>
-      <c r="D134" s="20">
+      <c r="C134" s="15"/>
+      <c r="D134" s="17">
         <v>26446</v>
       </c>
-      <c r="E134" s="18"/>
-      <c r="F134" s="20">
+      <c r="E134" s="15"/>
+      <c r="F134" s="17">
         <v>10174</v>
       </c>
-      <c r="G134" s="18"/>
-      <c r="H134" s="20">
+      <c r="G134" s="15"/>
+      <c r="H134" s="17">
         <v>221289</v>
       </c>
-      <c r="I134" s="18"/>
+      <c r="I134" s="15"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="20">
+      <c r="B136" s="17">
         <v>322392</v>
       </c>
-      <c r="C136" s="18">
+      <c r="C136" s="15">
         <v>918</v>
       </c>
-      <c r="D136" s="20">
+      <c r="D136" s="17">
         <v>50688</v>
       </c>
-      <c r="E136" s="18"/>
-      <c r="F136" s="20">
+      <c r="E136" s="15"/>
+      <c r="F136" s="17">
         <v>27558</v>
       </c>
-      <c r="G136" s="18"/>
-      <c r="H136" s="20">
+      <c r="G136" s="15"/>
+      <c r="H136" s="17">
         <v>400638</v>
       </c>
-      <c r="I136" s="18">
+      <c r="I136" s="15">
         <v>918</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B137" s="21">
+      <c r="B137" s="18">
         <v>328679</v>
       </c>
-      <c r="C137" s="19">
+      <c r="C137" s="16">
         <v>987</v>
       </c>
-      <c r="D137" s="21">
+      <c r="D137" s="18">
         <v>50787</v>
       </c>
-      <c r="E137" s="19"/>
-      <c r="F137" s="21">
+      <c r="E137" s="16"/>
+      <c r="F137" s="18">
         <v>27575</v>
       </c>
-      <c r="G137" s="19"/>
-      <c r="H137" s="21">
+      <c r="G137" s="16"/>
+      <c r="H137" s="18">
         <v>407041</v>
       </c>
-      <c r="I137" s="19">
+      <c r="I137" s="16">
         <v>987</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A138" s="18"/>
-      <c r="B138" s="20">
+      <c r="A138" s="15"/>
+      <c r="B138" s="17">
         <v>651071</v>
       </c>
-      <c r="C138" s="20">
+      <c r="C138" s="17">
         <v>1905</v>
       </c>
-      <c r="D138" s="20">
+      <c r="D138" s="17">
         <v>101475</v>
       </c>
-      <c r="E138" s="18"/>
-      <c r="F138" s="20">
+      <c r="E138" s="15"/>
+      <c r="F138" s="17">
         <v>55133</v>
       </c>
-      <c r="G138" s="18"/>
-      <c r="H138" s="20">
+      <c r="G138" s="15"/>
+      <c r="H138" s="17">
         <v>807679</v>
       </c>
-      <c r="I138" s="20">
+      <c r="I138" s="17">
         <v>1905</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="20">
+      <c r="B140" s="17">
         <v>245832</v>
       </c>
-      <c r="C140" s="18"/>
-      <c r="D140" s="20">
+      <c r="C140" s="15"/>
+      <c r="D140" s="17">
         <v>25644</v>
       </c>
-      <c r="E140" s="18"/>
-      <c r="F140" s="20">
+      <c r="E140" s="15"/>
+      <c r="F140" s="17">
         <v>4097</v>
       </c>
-      <c r="G140" s="18"/>
-      <c r="H140" s="20">
+      <c r="G140" s="15"/>
+      <c r="H140" s="17">
         <v>275573</v>
       </c>
-      <c r="I140" s="18"/>
+      <c r="I140" s="15"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B141" s="21">
+      <c r="B141" s="18">
         <v>241632</v>
       </c>
-      <c r="C141" s="19"/>
-      <c r="D141" s="21">
+      <c r="C141" s="16"/>
+      <c r="D141" s="18">
         <v>27222</v>
       </c>
-      <c r="E141" s="19"/>
-      <c r="F141" s="21">
+      <c r="E141" s="16"/>
+      <c r="F141" s="18">
         <v>4279</v>
       </c>
-      <c r="G141" s="19"/>
-      <c r="H141" s="21">
+      <c r="G141" s="16"/>
+      <c r="H141" s="18">
         <v>273133</v>
       </c>
-      <c r="I141" s="19"/>
+      <c r="I141" s="16"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A142" s="18"/>
-      <c r="B142" s="20">
+      <c r="A142" s="15"/>
+      <c r="B142" s="17">
         <v>487464</v>
       </c>
-      <c r="C142" s="18"/>
-      <c r="D142" s="20">
+      <c r="C142" s="15"/>
+      <c r="D142" s="17">
         <v>52866</v>
       </c>
-      <c r="E142" s="18"/>
-      <c r="F142" s="20">
+      <c r="E142" s="15"/>
+      <c r="F142" s="17">
         <v>8376</v>
       </c>
-      <c r="G142" s="18"/>
-      <c r="H142" s="20">
+      <c r="G142" s="15"/>
+      <c r="H142" s="17">
         <v>548706</v>
       </c>
-      <c r="I142" s="18"/>
+      <c r="I142" s="15"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B144" s="20">
+      <c r="B144" s="17">
         <v>266679</v>
       </c>
-      <c r="C144" s="18"/>
-      <c r="D144" s="20">
+      <c r="C144" s="15"/>
+      <c r="D144" s="17">
         <v>98570</v>
       </c>
-      <c r="E144" s="20">
+      <c r="E144" s="17">
         <v>36293</v>
       </c>
-      <c r="F144" s="20">
+      <c r="F144" s="17">
         <v>31472</v>
       </c>
-      <c r="G144" s="20">
+      <c r="G144" s="17">
         <v>1644</v>
       </c>
-      <c r="H144" s="20">
+      <c r="H144" s="17">
         <v>396721</v>
       </c>
-      <c r="I144" s="20">
+      <c r="I144" s="17">
         <v>37937</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A145" s="19" t="s">
+      <c r="A145" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B145" s="21">
+      <c r="B145" s="18">
         <v>269194</v>
       </c>
-      <c r="C145" s="19"/>
-      <c r="D145" s="21">
+      <c r="C145" s="16"/>
+      <c r="D145" s="18">
         <v>101890</v>
       </c>
-      <c r="E145" s="21">
+      <c r="E145" s="18">
         <v>32887</v>
       </c>
-      <c r="F145" s="21">
+      <c r="F145" s="18">
         <v>31665</v>
       </c>
-      <c r="G145" s="21">
+      <c r="G145" s="18">
         <v>1829</v>
       </c>
-      <c r="H145" s="21">
+      <c r="H145" s="18">
         <v>402749</v>
       </c>
-      <c r="I145" s="21">
+      <c r="I145" s="18">
         <v>34716</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A146" s="18"/>
-      <c r="B146" s="20">
+      <c r="A146" s="15"/>
+      <c r="B146" s="17">
         <v>535873</v>
       </c>
-      <c r="C146" s="18"/>
-      <c r="D146" s="20">
+      <c r="C146" s="15"/>
+      <c r="D146" s="17">
         <v>200460</v>
       </c>
-      <c r="E146" s="20">
+      <c r="E146" s="17">
         <v>69180</v>
       </c>
-      <c r="F146" s="20">
+      <c r="F146" s="17">
         <v>63137</v>
       </c>
-      <c r="G146" s="20">
+      <c r="G146" s="17">
         <v>3473</v>
       </c>
-      <c r="H146" s="20">
+      <c r="H146" s="17">
         <v>799470</v>
       </c>
-      <c r="I146" s="20">
+      <c r="I146" s="17">
         <v>72653</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A147" s="19" t="s">
+      <c r="A147" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="20">
+      <c r="B148" s="17">
         <v>157339</v>
       </c>
-      <c r="C148" s="18"/>
-      <c r="D148" s="20">
+      <c r="C148" s="15"/>
+      <c r="D148" s="17">
         <v>7993</v>
       </c>
-      <c r="E148" s="18"/>
-      <c r="F148" s="20">
+      <c r="E148" s="15"/>
+      <c r="F148" s="17">
         <v>17123</v>
       </c>
-      <c r="G148" s="18"/>
-      <c r="H148" s="20">
+      <c r="G148" s="15"/>
+      <c r="H148" s="17">
         <v>182455</v>
       </c>
-      <c r="I148" s="18"/>
+      <c r="I148" s="15"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A149" s="19" t="s">
+      <c r="A149" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B149" s="21">
+      <c r="B149" s="18">
         <v>158231</v>
       </c>
-      <c r="C149" s="19"/>
-      <c r="D149" s="21">
+      <c r="C149" s="16"/>
+      <c r="D149" s="18">
         <v>8301</v>
       </c>
-      <c r="E149" s="19"/>
-      <c r="F149" s="21">
+      <c r="E149" s="16"/>
+      <c r="F149" s="18">
         <v>17861</v>
       </c>
-      <c r="G149" s="19"/>
-      <c r="H149" s="21">
+      <c r="G149" s="16"/>
+      <c r="H149" s="18">
         <v>184393</v>
       </c>
-      <c r="I149" s="19"/>
+      <c r="I149" s="16"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A150" s="18"/>
-      <c r="B150" s="20">
+      <c r="A150" s="15"/>
+      <c r="B150" s="17">
         <v>315570</v>
       </c>
-      <c r="C150" s="18"/>
-      <c r="D150" s="20">
+      <c r="C150" s="15"/>
+      <c r="D150" s="17">
         <v>16294</v>
       </c>
-      <c r="E150" s="18"/>
-      <c r="F150" s="20">
+      <c r="E150" s="15"/>
+      <c r="F150" s="17">
         <v>34984</v>
       </c>
-      <c r="G150" s="18"/>
-      <c r="H150" s="20">
+      <c r="G150" s="15"/>
+      <c r="H150" s="17">
         <v>366848</v>
       </c>
-      <c r="I150" s="18"/>
+      <c r="I150" s="15"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A151" s="19" t="s">
+      <c r="A151" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B152" s="20">
+      <c r="B152" s="17">
         <v>321662</v>
       </c>
-      <c r="C152" s="18"/>
-      <c r="D152" s="20">
+      <c r="C152" s="15"/>
+      <c r="D152" s="17">
         <v>15906</v>
       </c>
-      <c r="E152" s="18"/>
-      <c r="F152" s="20">
+      <c r="E152" s="15"/>
+      <c r="F152" s="17">
         <v>33920</v>
       </c>
-      <c r="G152" s="18"/>
-      <c r="H152" s="20">
+      <c r="G152" s="15"/>
+      <c r="H152" s="17">
         <v>371488</v>
       </c>
-      <c r="I152" s="18"/>
+      <c r="I152" s="15"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B153" s="21">
+      <c r="B153" s="18">
         <v>321333</v>
       </c>
-      <c r="C153" s="19"/>
-      <c r="D153" s="21">
+      <c r="C153" s="16"/>
+      <c r="D153" s="18">
         <v>15908</v>
       </c>
-      <c r="E153" s="19"/>
-      <c r="F153" s="21">
+      <c r="E153" s="16"/>
+      <c r="F153" s="18">
         <v>34012</v>
       </c>
-      <c r="G153" s="19"/>
-      <c r="H153" s="21">
+      <c r="G153" s="16"/>
+      <c r="H153" s="18">
         <v>371253</v>
       </c>
-      <c r="I153" s="19"/>
+      <c r="I153" s="16"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A154" s="18"/>
-      <c r="B154" s="20">
+      <c r="A154" s="15"/>
+      <c r="B154" s="17">
         <v>642995</v>
       </c>
-      <c r="C154" s="18"/>
-      <c r="D154" s="20">
+      <c r="C154" s="15"/>
+      <c r="D154" s="17">
         <v>31814</v>
       </c>
-      <c r="E154" s="18"/>
-      <c r="F154" s="20">
+      <c r="E154" s="15"/>
+      <c r="F154" s="17">
         <v>67932</v>
       </c>
-      <c r="G154" s="18"/>
-      <c r="H154" s="20">
+      <c r="G154" s="15"/>
+      <c r="H154" s="17">
         <v>742741</v>
       </c>
-      <c r="I154" s="18"/>
+      <c r="I154" s="15"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A155" s="19" t="s">
+      <c r="A155" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="20">
+      <c r="B156" s="17">
         <v>157114</v>
       </c>
-      <c r="C156" s="18"/>
-      <c r="D156" s="20">
+      <c r="C156" s="15"/>
+      <c r="D156" s="17">
         <v>31530</v>
       </c>
-      <c r="E156" s="18"/>
-      <c r="F156" s="20">
+      <c r="E156" s="15"/>
+      <c r="F156" s="17">
         <v>4758</v>
       </c>
-      <c r="G156" s="18"/>
-      <c r="H156" s="20">
+      <c r="G156" s="15"/>
+      <c r="H156" s="17">
         <v>193402</v>
       </c>
-      <c r="I156" s="18"/>
+      <c r="I156" s="15"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A157" s="19" t="s">
+      <c r="A157" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B157" s="21">
+      <c r="B157" s="18">
         <v>159349</v>
       </c>
-      <c r="C157" s="19"/>
-      <c r="D157" s="21">
+      <c r="C157" s="16"/>
+      <c r="D157" s="18">
         <v>34056</v>
       </c>
-      <c r="E157" s="19"/>
-      <c r="F157" s="21">
+      <c r="E157" s="16"/>
+      <c r="F157" s="18">
         <v>4832</v>
       </c>
-      <c r="G157" s="19"/>
-      <c r="H157" s="21">
+      <c r="G157" s="16"/>
+      <c r="H157" s="18">
         <v>198237</v>
       </c>
-      <c r="I157" s="19"/>
+      <c r="I157" s="16"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="18"/>
-      <c r="B158" s="20">
+      <c r="A158" s="15"/>
+      <c r="B158" s="17">
         <v>316463</v>
       </c>
-      <c r="C158" s="18"/>
-      <c r="D158" s="20">
+      <c r="C158" s="15"/>
+      <c r="D158" s="17">
         <v>65586</v>
       </c>
-      <c r="E158" s="18"/>
-      <c r="F158" s="20">
+      <c r="E158" s="15"/>
+      <c r="F158" s="17">
         <v>9590</v>
       </c>
-      <c r="G158" s="18"/>
-      <c r="H158" s="20">
+      <c r="G158" s="15"/>
+      <c r="H158" s="17">
         <v>391639</v>
       </c>
-      <c r="I158" s="18"/>
+      <c r="I158" s="15"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A159" s="19" t="s">
+      <c r="A159" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A160" s="18" t="s">
+      <c r="A160" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B160" s="20">
+      <c r="B160" s="17">
         <v>434154</v>
       </c>
-      <c r="C160" s="20">
+      <c r="C160" s="17">
         <v>1156</v>
       </c>
-      <c r="D160" s="20">
+      <c r="D160" s="17">
         <v>280376</v>
       </c>
-      <c r="E160" s="20">
+      <c r="E160" s="17">
         <v>9795</v>
       </c>
-      <c r="F160" s="20">
+      <c r="F160" s="17">
         <v>51143</v>
       </c>
-      <c r="G160" s="20">
+      <c r="G160" s="17">
         <v>3655</v>
       </c>
-      <c r="H160" s="20">
+      <c r="H160" s="17">
         <v>765673</v>
       </c>
-      <c r="I160" s="20">
+      <c r="I160" s="17">
         <v>14606</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A161" s="19" t="s">
+      <c r="A161" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B161" s="21">
+      <c r="B161" s="18">
         <v>432199</v>
       </c>
-      <c r="C161" s="21">
+      <c r="C161" s="18">
         <v>1325</v>
       </c>
-      <c r="D161" s="21">
+      <c r="D161" s="18">
         <v>287465</v>
       </c>
-      <c r="E161" s="21">
+      <c r="E161" s="18">
         <v>9572</v>
       </c>
-      <c r="F161" s="21">
+      <c r="F161" s="18">
         <v>51922</v>
       </c>
-      <c r="G161" s="21">
+      <c r="G161" s="18">
         <v>3283</v>
       </c>
-      <c r="H161" s="21">
+      <c r="H161" s="18">
         <v>771586</v>
       </c>
-      <c r="I161" s="21">
+      <c r="I161" s="18">
         <v>14180</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A162" s="18"/>
-      <c r="B162" s="20">
+      <c r="A162" s="15"/>
+      <c r="B162" s="17">
         <v>866353</v>
       </c>
-      <c r="C162" s="20">
+      <c r="C162" s="17">
         <v>2481</v>
       </c>
-      <c r="D162" s="20">
+      <c r="D162" s="17">
         <v>567841</v>
       </c>
-      <c r="E162" s="20">
+      <c r="E162" s="17">
         <v>19367</v>
       </c>
-      <c r="F162" s="20">
+      <c r="F162" s="17">
         <v>103065</v>
       </c>
-      <c r="G162" s="20">
+      <c r="G162" s="17">
         <v>6938</v>
       </c>
-      <c r="H162" s="20">
+      <c r="H162" s="17">
         <v>1537259</v>
       </c>
-      <c r="I162" s="20">
+      <c r="I162" s="17">
         <v>28786</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A163" s="19" t="s">
+      <c r="A163" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B163" s="19"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B164" s="20">
+      <c r="B164" s="17">
         <v>395501</v>
       </c>
-      <c r="C164" s="18"/>
-      <c r="D164" s="20">
+      <c r="C164" s="15"/>
+      <c r="D164" s="17">
         <v>27157</v>
       </c>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="20">
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="17">
         <v>422658</v>
       </c>
-      <c r="I164" s="18"/>
+      <c r="I164" s="15"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A165" s="19" t="s">
+      <c r="A165" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B165" s="21">
+      <c r="B165" s="18">
         <v>391708</v>
       </c>
-      <c r="C165" s="19"/>
-      <c r="D165" s="21">
+      <c r="C165" s="16"/>
+      <c r="D165" s="18">
         <v>27147</v>
       </c>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="21">
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="18">
         <v>418855</v>
       </c>
-      <c r="I165" s="19"/>
+      <c r="I165" s="16"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A166" s="18"/>
-      <c r="B166" s="20">
+      <c r="A166" s="15"/>
+      <c r="B166" s="17">
         <v>787209</v>
       </c>
-      <c r="C166" s="18"/>
-      <c r="D166" s="20">
+      <c r="C166" s="15"/>
+      <c r="D166" s="17">
         <v>54304</v>
       </c>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="20">
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="17">
         <v>841513</v>
       </c>
-      <c r="I166" s="18"/>
+      <c r="I166" s="15"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A167" s="19" t="s">
+      <c r="A167" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A168" s="18" t="s">
+      <c r="A168" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="20">
+      <c r="B168" s="17">
         <v>199170</v>
       </c>
-      <c r="C168" s="18"/>
-      <c r="D168" s="20">
+      <c r="C168" s="15"/>
+      <c r="D168" s="17">
         <v>130766</v>
       </c>
-      <c r="E168" s="20">
+      <c r="E168" s="17">
         <v>3138</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="17">
         <v>5421</v>
       </c>
-      <c r="G168" s="18"/>
-      <c r="H168" s="20">
+      <c r="G168" s="15"/>
+      <c r="H168" s="17">
         <v>335357</v>
       </c>
-      <c r="I168" s="20">
+      <c r="I168" s="17">
         <v>3138</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A169" s="19" t="s">
+      <c r="A169" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B169" s="21">
+      <c r="B169" s="18">
         <v>200132</v>
       </c>
-      <c r="C169" s="19"/>
-      <c r="D169" s="21">
+      <c r="C169" s="16"/>
+      <c r="D169" s="18">
         <v>129859</v>
       </c>
-      <c r="E169" s="21">
+      <c r="E169" s="18">
         <v>3146</v>
       </c>
-      <c r="F169" s="21">
+      <c r="F169" s="18">
         <v>5330</v>
       </c>
-      <c r="G169" s="19"/>
-      <c r="H169" s="21">
+      <c r="G169" s="16"/>
+      <c r="H169" s="18">
         <v>335321</v>
       </c>
-      <c r="I169" s="21">
+      <c r="I169" s="18">
         <v>3146</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A170" s="18"/>
-      <c r="B170" s="20">
+      <c r="A170" s="15"/>
+      <c r="B170" s="17">
         <v>399302</v>
       </c>
-      <c r="C170" s="18"/>
-      <c r="D170" s="20">
+      <c r="C170" s="15"/>
+      <c r="D170" s="17">
         <v>260625</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E170" s="17">
         <v>6284</v>
       </c>
-      <c r="F170" s="20">
+      <c r="F170" s="17">
         <v>10751</v>
       </c>
-      <c r="G170" s="18"/>
-      <c r="H170" s="20">
+      <c r="G170" s="15"/>
+      <c r="H170" s="17">
         <v>670678</v>
       </c>
-      <c r="I170" s="20">
+      <c r="I170" s="17">
         <v>6284</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
+      <c r="I171" s="16"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A172" s="18" t="s">
+      <c r="A172" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="20">
+      <c r="B172" s="17">
         <v>182742</v>
       </c>
-      <c r="C172" s="18"/>
-      <c r="D172" s="20">
+      <c r="C172" s="15"/>
+      <c r="D172" s="17">
         <v>23992</v>
       </c>
-      <c r="E172" s="20">
+      <c r="E172" s="17">
         <v>3107</v>
       </c>
-      <c r="F172" s="20">
+      <c r="F172" s="17">
         <v>83399</v>
       </c>
-      <c r="G172" s="18"/>
-      <c r="H172" s="20">
+      <c r="G172" s="15"/>
+      <c r="H172" s="17">
         <v>290133</v>
       </c>
-      <c r="I172" s="20">
+      <c r="I172" s="17">
         <v>3107</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A173" s="19" t="s">
+      <c r="A173" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B173" s="21">
+      <c r="B173" s="18">
         <v>177876</v>
       </c>
-      <c r="C173" s="19"/>
-      <c r="D173" s="21">
+      <c r="C173" s="16"/>
+      <c r="D173" s="18">
         <v>23502</v>
       </c>
-      <c r="E173" s="21">
+      <c r="E173" s="18">
         <v>2678</v>
       </c>
-      <c r="F173" s="21">
+      <c r="F173" s="18">
         <v>83912</v>
       </c>
-      <c r="G173" s="19"/>
-      <c r="H173" s="21">
+      <c r="G173" s="16"/>
+      <c r="H173" s="18">
         <v>285290</v>
       </c>
-      <c r="I173" s="21">
+      <c r="I173" s="18">
         <v>2678</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A174" s="18"/>
-      <c r="B174" s="20">
+      <c r="A174" s="15"/>
+      <c r="B174" s="17">
         <v>360618</v>
       </c>
-      <c r="C174" s="18"/>
-      <c r="D174" s="20">
+      <c r="C174" s="15"/>
+      <c r="D174" s="17">
         <v>47494</v>
       </c>
-      <c r="E174" s="20">
+      <c r="E174" s="17">
         <v>5785</v>
       </c>
-      <c r="F174" s="20">
+      <c r="F174" s="17">
         <v>167311</v>
       </c>
-      <c r="G174" s="18"/>
-      <c r="H174" s="20">
+      <c r="G174" s="15"/>
+      <c r="H174" s="17">
         <v>575423</v>
       </c>
-      <c r="I174" s="20">
+      <c r="I174" s="17">
         <v>5785</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A175" s="19" t="s">
+      <c r="A175" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="16"/>
+      <c r="I175" s="16"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B176" s="20">
+      <c r="B176" s="17">
         <v>389354</v>
       </c>
-      <c r="C176" s="18"/>
-      <c r="D176" s="20">
+      <c r="C176" s="15"/>
+      <c r="D176" s="17">
         <v>8626</v>
       </c>
-      <c r="E176" s="18"/>
-      <c r="F176" s="20">
+      <c r="E176" s="15"/>
+      <c r="F176" s="17">
         <v>40675</v>
       </c>
-      <c r="G176" s="18"/>
-      <c r="H176" s="20">
+      <c r="G176" s="15"/>
+      <c r="H176" s="17">
         <v>438655</v>
       </c>
-      <c r="I176" s="18"/>
+      <c r="I176" s="15"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B177" s="21">
+      <c r="B177" s="18">
         <v>395013</v>
       </c>
-      <c r="C177" s="19"/>
-      <c r="D177" s="21">
+      <c r="C177" s="16"/>
+      <c r="D177" s="18">
         <v>8485</v>
       </c>
-      <c r="E177" s="19"/>
-      <c r="F177" s="21">
+      <c r="E177" s="16"/>
+      <c r="F177" s="18">
         <v>41284</v>
       </c>
-      <c r="G177" s="19"/>
-      <c r="H177" s="21">
+      <c r="G177" s="16"/>
+      <c r="H177" s="18">
         <v>444782</v>
       </c>
-      <c r="I177" s="19"/>
+      <c r="I177" s="16"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A178" s="18"/>
-      <c r="B178" s="20">
+      <c r="A178" s="15"/>
+      <c r="B178" s="17">
         <v>784367</v>
       </c>
-      <c r="C178" s="18"/>
-      <c r="D178" s="20">
+      <c r="C178" s="15"/>
+      <c r="D178" s="17">
         <v>17111</v>
       </c>
-      <c r="E178" s="18"/>
-      <c r="F178" s="20">
+      <c r="E178" s="15"/>
+      <c r="F178" s="17">
         <v>81959</v>
       </c>
-      <c r="G178" s="18"/>
-      <c r="H178" s="20">
+      <c r="G178" s="15"/>
+      <c r="H178" s="17">
         <v>883437</v>
       </c>
-      <c r="I178" s="18"/>
+      <c r="I178" s="15"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
+      <c r="I179" s="16"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A180" s="18" t="s">
+      <c r="A180" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B180" s="20">
+      <c r="B180" s="17">
         <v>681357</v>
       </c>
-      <c r="C180" s="18"/>
-      <c r="D180" s="20">
+      <c r="C180" s="15"/>
+      <c r="D180" s="17">
         <v>58259</v>
       </c>
-      <c r="E180" s="20">
+      <c r="E180" s="17">
         <v>1983</v>
       </c>
-      <c r="F180" s="20">
+      <c r="F180" s="17">
         <v>51161</v>
       </c>
-      <c r="G180" s="18"/>
-      <c r="H180" s="20">
+      <c r="G180" s="15"/>
+      <c r="H180" s="17">
         <v>790777</v>
       </c>
-      <c r="I180" s="20">
+      <c r="I180" s="17">
         <v>1983</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A181" s="19" t="s">
+      <c r="A181" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B181" s="21">
+      <c r="B181" s="18">
         <v>737421</v>
       </c>
-      <c r="C181" s="19"/>
-      <c r="D181" s="21">
+      <c r="C181" s="16"/>
+      <c r="D181" s="18">
         <v>60383</v>
       </c>
-      <c r="E181" s="21">
+      <c r="E181" s="18">
         <v>2066</v>
       </c>
-      <c r="F181" s="21">
+      <c r="F181" s="18">
         <v>54515</v>
       </c>
-      <c r="G181" s="19"/>
-      <c r="H181" s="21">
+      <c r="G181" s="16"/>
+      <c r="H181" s="18">
         <v>852319</v>
       </c>
-      <c r="I181" s="21">
+      <c r="I181" s="18">
         <v>2066</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A182" s="18"/>
-      <c r="B182" s="20">
+      <c r="A182" s="15"/>
+      <c r="B182" s="17">
         <v>1418778</v>
       </c>
-      <c r="C182" s="18"/>
-      <c r="D182" s="20">
+      <c r="C182" s="15"/>
+      <c r="D182" s="17">
         <v>118642</v>
       </c>
-      <c r="E182" s="20">
+      <c r="E182" s="17">
         <v>4049</v>
       </c>
-      <c r="F182" s="20">
+      <c r="F182" s="17">
         <v>105676</v>
       </c>
-      <c r="G182" s="18"/>
-      <c r="H182" s="20">
+      <c r="G182" s="15"/>
+      <c r="H182" s="17">
         <v>1643096</v>
       </c>
-      <c r="I182" s="20">
+      <c r="I182" s="17">
         <v>4049</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A183" s="19" t="s">
+      <c r="A183" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="16"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A184" s="18" t="s">
+      <c r="A184" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B184" s="20">
+      <c r="B184" s="17">
         <v>177660</v>
       </c>
-      <c r="C184" s="18"/>
-      <c r="D184" s="20">
+      <c r="C184" s="15"/>
+      <c r="D184" s="17">
         <v>19671</v>
       </c>
-      <c r="E184" s="18">
+      <c r="E184" s="15">
         <v>923</v>
       </c>
-      <c r="F184" s="20">
+      <c r="F184" s="17">
         <v>59463</v>
       </c>
-      <c r="G184" s="20">
+      <c r="G184" s="17">
         <v>2491</v>
       </c>
-      <c r="H184" s="20">
+      <c r="H184" s="17">
         <v>256794</v>
       </c>
-      <c r="I184" s="20">
+      <c r="I184" s="17">
         <v>3414</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A185" s="19" t="s">
+      <c r="A185" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B185" s="21">
+      <c r="B185" s="18">
         <v>199025</v>
       </c>
-      <c r="C185" s="19"/>
-      <c r="D185" s="21">
+      <c r="C185" s="16"/>
+      <c r="D185" s="18">
         <v>21315</v>
       </c>
-      <c r="E185" s="21">
+      <c r="E185" s="18">
         <v>1089</v>
       </c>
-      <c r="F185" s="21">
+      <c r="F185" s="18">
         <v>64675</v>
       </c>
-      <c r="G185" s="21">
+      <c r="G185" s="18">
         <v>2701</v>
       </c>
-      <c r="H185" s="21">
+      <c r="H185" s="18">
         <v>285015</v>
       </c>
-      <c r="I185" s="21">
+      <c r="I185" s="18">
         <v>3790</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A186" s="18"/>
-      <c r="B186" s="20">
+      <c r="A186" s="15"/>
+      <c r="B186" s="17">
         <v>376685</v>
       </c>
-      <c r="C186" s="18"/>
-      <c r="D186" s="20">
+      <c r="C186" s="15"/>
+      <c r="D186" s="17">
         <v>40986</v>
       </c>
-      <c r="E186" s="20">
+      <c r="E186" s="17">
         <v>2012</v>
       </c>
-      <c r="F186" s="20">
+      <c r="F186" s="17">
         <v>124138</v>
       </c>
-      <c r="G186" s="20">
+      <c r="G186" s="17">
         <v>5192</v>
       </c>
-      <c r="H186" s="20">
+      <c r="H186" s="17">
         <v>541809</v>
       </c>
-      <c r="I186" s="20">
+      <c r="I186" s="17">
         <v>7204</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A187" s="19" t="s">
+      <c r="A187" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B187" s="19"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="16"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A188" s="18" t="s">
+      <c r="A188" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="20">
+      <c r="B188" s="17">
         <v>562700</v>
       </c>
-      <c r="C188" s="18"/>
-      <c r="D188" s="20">
+      <c r="C188" s="15"/>
+      <c r="D188" s="17">
         <v>61850</v>
       </c>
-      <c r="E188" s="18"/>
-      <c r="F188" s="20">
+      <c r="E188" s="15"/>
+      <c r="F188" s="17">
         <v>40334</v>
       </c>
-      <c r="G188" s="18"/>
-      <c r="H188" s="20">
+      <c r="G188" s="15"/>
+      <c r="H188" s="17">
         <v>664884</v>
       </c>
-      <c r="I188" s="18"/>
+      <c r="I188" s="15"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A189" s="19" t="s">
+      <c r="A189" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B189" s="21">
+      <c r="B189" s="18">
         <v>589782</v>
       </c>
-      <c r="C189" s="19"/>
-      <c r="D189" s="21">
+      <c r="C189" s="16"/>
+      <c r="D189" s="18">
         <v>65919</v>
       </c>
-      <c r="E189" s="19"/>
-      <c r="F189" s="21">
+      <c r="E189" s="16"/>
+      <c r="F189" s="18">
         <v>42076</v>
       </c>
-      <c r="G189" s="19"/>
-      <c r="H189" s="21">
+      <c r="G189" s="16"/>
+      <c r="H189" s="18">
         <v>697777</v>
       </c>
-      <c r="I189" s="19"/>
+      <c r="I189" s="16"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A190" s="18"/>
-      <c r="B190" s="20">
+      <c r="A190" s="15"/>
+      <c r="B190" s="17">
         <v>1152482</v>
       </c>
-      <c r="C190" s="18"/>
-      <c r="D190" s="20">
+      <c r="C190" s="15"/>
+      <c r="D190" s="17">
         <v>127769</v>
       </c>
-      <c r="E190" s="18"/>
-      <c r="F190" s="20">
+      <c r="E190" s="15"/>
+      <c r="F190" s="17">
         <v>82410</v>
       </c>
-      <c r="G190" s="18"/>
-      <c r="H190" s="20">
+      <c r="G190" s="15"/>
+      <c r="H190" s="17">
         <v>1362661</v>
       </c>
-      <c r="I190" s="18"/>
+      <c r="I190" s="15"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A191" s="19" t="s">
+      <c r="A191" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="16"/>
+      <c r="I191" s="16"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A192" s="18" t="s">
+      <c r="A192" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B192" s="20">
+      <c r="B192" s="17">
         <v>312571</v>
       </c>
-      <c r="C192" s="18"/>
-      <c r="D192" s="20">
+      <c r="C192" s="15"/>
+      <c r="D192" s="17">
         <v>30730</v>
       </c>
-      <c r="E192" s="18"/>
-      <c r="F192" s="20">
+      <c r="E192" s="15"/>
+      <c r="F192" s="17">
         <v>8285</v>
       </c>
-      <c r="G192" s="18"/>
-      <c r="H192" s="20">
+      <c r="G192" s="15"/>
+      <c r="H192" s="17">
         <v>351586</v>
       </c>
-      <c r="I192" s="18"/>
+      <c r="I192" s="15"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A193" s="19" t="s">
+      <c r="A193" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B193" s="21">
+      <c r="B193" s="18">
         <v>342974</v>
       </c>
-      <c r="C193" s="19"/>
-      <c r="D193" s="21">
+      <c r="C193" s="16"/>
+      <c r="D193" s="18">
         <v>33743</v>
       </c>
-      <c r="E193" s="19"/>
-      <c r="F193" s="21">
+      <c r="E193" s="16"/>
+      <c r="F193" s="18">
         <v>8789</v>
       </c>
-      <c r="G193" s="19"/>
-      <c r="H193" s="21">
+      <c r="G193" s="16"/>
+      <c r="H193" s="18">
         <v>385506</v>
       </c>
-      <c r="I193" s="19"/>
+      <c r="I193" s="16"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A194" s="18"/>
-      <c r="B194" s="20">
+      <c r="A194" s="15"/>
+      <c r="B194" s="17">
         <v>655545</v>
       </c>
-      <c r="C194" s="18"/>
-      <c r="D194" s="20">
+      <c r="C194" s="15"/>
+      <c r="D194" s="17">
         <v>64473</v>
       </c>
-      <c r="E194" s="18"/>
-      <c r="F194" s="20">
+      <c r="E194" s="15"/>
+      <c r="F194" s="17">
         <v>17074</v>
       </c>
-      <c r="G194" s="18"/>
-      <c r="H194" s="20">
+      <c r="G194" s="15"/>
+      <c r="H194" s="17">
         <v>737092</v>
       </c>
-      <c r="I194" s="17"/>
+      <c r="I194" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7537,6 +8759,697 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CC508C-F3E9-48DD-A72A-A6DC9DF7BFC7}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="19">
+        <v>4397073</v>
+      </c>
+      <c r="C2" s="19">
+        <v>2192452</v>
+      </c>
+      <c r="D2" s="19">
+        <v>2204376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1706285</v>
+      </c>
+      <c r="C3" s="2">
+        <v>831589</v>
+      </c>
+      <c r="D3" s="2">
+        <v>874588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1208333</v>
+      </c>
+      <c r="C4" s="2">
+        <v>610257</v>
+      </c>
+      <c r="D4" s="2">
+        <v>598046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1047080</v>
+      </c>
+      <c r="C5" s="2">
+        <v>517633</v>
+      </c>
+      <c r="D5" s="2">
+        <v>529377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2">
+        <v>622622</v>
+      </c>
+      <c r="C6" s="2">
+        <v>306865</v>
+      </c>
+      <c r="D6" s="2">
+        <v>315734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2">
+        <v>510205</v>
+      </c>
+      <c r="C7" s="2">
+        <v>254000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>256189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2">
+        <v>440906</v>
+      </c>
+      <c r="C8" s="2">
+        <v>216221</v>
+      </c>
+      <c r="D8" s="2">
+        <v>224670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>414078</v>
+      </c>
+      <c r="C9" s="2">
+        <v>206460</v>
+      </c>
+      <c r="D9" s="2">
+        <v>207609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>393888</v>
+      </c>
+      <c r="C10" s="2">
+        <v>191324</v>
+      </c>
+      <c r="D10" s="2">
+        <v>202558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>270467</v>
+      </c>
+      <c r="C11" s="2">
+        <v>135548</v>
+      </c>
+      <c r="D11" s="2">
+        <v>134909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>210890</v>
+      </c>
+      <c r="C12" s="2">
+        <v>109552</v>
+      </c>
+      <c r="D12" s="2">
+        <v>101331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2">
+        <v>190112</v>
+      </c>
+      <c r="C13" s="2">
+        <v>91911</v>
+      </c>
+      <c r="D13" s="2">
+        <v>98195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2">
+        <v>185340</v>
+      </c>
+      <c r="C14" s="2">
+        <v>90451</v>
+      </c>
+      <c r="D14" s="2">
+        <v>94880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2">
+        <v>178734</v>
+      </c>
+      <c r="C15" s="2">
+        <v>88501</v>
+      </c>
+      <c r="D15" s="2">
+        <v>90228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>177174</v>
+      </c>
+      <c r="C16" s="2">
+        <v>94812</v>
+      </c>
+      <c r="D16" s="2">
+        <v>82340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2">
+        <v>167200</v>
+      </c>
+      <c r="C17" s="2">
+        <v>80300</v>
+      </c>
+      <c r="D17" s="2">
+        <v>86896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2">
+        <v>151410</v>
+      </c>
+      <c r="C18" s="2">
+        <v>73924</v>
+      </c>
+      <c r="D18" s="2">
+        <v>77478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2">
+        <v>150755</v>
+      </c>
+      <c r="C19" s="2">
+        <v>73395</v>
+      </c>
+      <c r="D19" s="2">
+        <v>77357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2">
+        <v>140791</v>
+      </c>
+      <c r="C20" s="2">
+        <v>71597</v>
+      </c>
+      <c r="D20" s="2">
+        <v>69193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>138918</v>
+      </c>
+      <c r="C21" s="2">
+        <v>68166</v>
+      </c>
+      <c r="D21" s="2">
+        <v>70747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
+        <v>136224</v>
+      </c>
+      <c r="C22" s="2">
+        <v>64925</v>
+      </c>
+      <c r="D22" s="2">
+        <v>71286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2">
+        <v>127360</v>
+      </c>
+      <c r="C23" s="2">
+        <v>63163</v>
+      </c>
+      <c r="D23" s="2">
+        <v>64193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2">
+        <v>126431</v>
+      </c>
+      <c r="C24" s="2">
+        <v>62395</v>
+      </c>
+      <c r="D24" s="2">
+        <v>64031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>125669</v>
+      </c>
+      <c r="C25" s="2">
+        <v>63075</v>
+      </c>
+      <c r="D25" s="2">
+        <v>62589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2">
+        <v>118427</v>
+      </c>
+      <c r="C26" s="2">
+        <v>56878</v>
+      </c>
+      <c r="D26" s="2">
+        <v>61548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2">
+        <v>113753</v>
+      </c>
+      <c r="C27" s="2">
+        <v>54963</v>
+      </c>
+      <c r="D27" s="2">
+        <v>58790</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2">
+        <v>113079</v>
+      </c>
+      <c r="C28" s="2">
+        <v>53569</v>
+      </c>
+      <c r="D28" s="2">
+        <v>59506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>107239</v>
+      </c>
+      <c r="C29" s="2">
+        <v>54790</v>
+      </c>
+      <c r="D29" s="2">
+        <v>52447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2">
+        <v>100352</v>
+      </c>
+      <c r="C30" s="2">
+        <v>49818</v>
+      </c>
+      <c r="D30" s="2">
+        <v>50529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2">
+        <v>93774</v>
+      </c>
+      <c r="C31" s="2">
+        <v>46620</v>
+      </c>
+      <c r="D31" s="2">
+        <v>47149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2">
+        <v>93538</v>
+      </c>
+      <c r="C32" s="2">
+        <v>48024</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2">
+        <v>85417</v>
+      </c>
+      <c r="C33" s="2">
+        <v>40219</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2">
+        <v>77076</v>
+      </c>
+      <c r="C34" s="2">
+        <v>39209</v>
+      </c>
+      <c r="D34" s="2">
+        <v>37867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2">
+        <v>75924</v>
+      </c>
+      <c r="C35" s="2">
+        <v>37082</v>
+      </c>
+      <c r="D35" s="2">
+        <v>38833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2">
+        <v>75722</v>
+      </c>
+      <c r="C36" s="2">
+        <v>37854</v>
+      </c>
+      <c r="D36" s="2">
+        <v>37867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="2">
+        <v>75289</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36866</v>
+      </c>
+      <c r="D37" s="2">
+        <v>38422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2">
+        <v>66535</v>
+      </c>
+      <c r="C38" s="2">
+        <v>32523</v>
+      </c>
+      <c r="D38" s="2">
+        <v>34007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="2">
+        <v>59479</v>
+      </c>
+      <c r="C39" s="2">
+        <v>29544</v>
+      </c>
+      <c r="D39" s="2">
+        <v>29933</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="2">
+        <v>58384</v>
+      </c>
+      <c r="C40" s="2">
+        <v>27951</v>
+      </c>
+      <c r="D40" s="2">
+        <v>30431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2">
+        <v>54019</v>
+      </c>
+      <c r="C41" s="2">
+        <v>26060</v>
+      </c>
+      <c r="D41" s="2">
+        <v>27958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2">
+        <v>47132</v>
+      </c>
+      <c r="C42" s="2">
+        <v>23716</v>
+      </c>
+      <c r="D42" s="2">
+        <v>23416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="2">
+        <v>47036</v>
+      </c>
+      <c r="C43" s="2">
+        <v>22666</v>
+      </c>
+      <c r="D43" s="2">
+        <v>24370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="2">
+        <v>38446</v>
+      </c>
+      <c r="C44" s="2">
+        <v>19533</v>
+      </c>
+      <c r="D44" s="2">
+        <v>18911</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2">
+        <v>32743</v>
+      </c>
+      <c r="C45" s="2">
+        <v>16048</v>
+      </c>
+      <c r="D45" s="2">
+        <v>16694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="2">
+        <v>31841</v>
+      </c>
+      <c r="C46" s="2">
+        <v>15544</v>
+      </c>
+      <c r="D46" s="2">
+        <v>16297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="2">
+        <v>27971</v>
+      </c>
+      <c r="C47" s="2">
+        <v>14168</v>
+      </c>
+      <c r="D47" s="2">
+        <v>13802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="11">
+        <v>20579</v>
+      </c>
+      <c r="C48" s="11">
+        <v>9973</v>
+      </c>
+      <c r="D48" s="11">
+        <v>10603</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D48">
+    <sortCondition descending="1" ref="B2:B48"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
